--- a/data/pca/factorExposure/factorExposure_2019-05-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1243673970585142</v>
+        <v>0.07729308869452388</v>
       </c>
       <c r="C2">
-        <v>-0.01171141918479368</v>
+        <v>0.01756883056909248</v>
       </c>
       <c r="D2">
-        <v>0.01914218489566077</v>
+        <v>-0.03823700202418521</v>
       </c>
       <c r="E2">
-        <v>0.09362932619125819</v>
+        <v>-0.1097263200764073</v>
       </c>
       <c r="F2">
-        <v>-0.09502678742072194</v>
+        <v>-0.08569241303081494</v>
       </c>
       <c r="G2">
-        <v>-0.1533191240086995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.08771184612624824</v>
+      </c>
+      <c r="H2">
+        <v>0.0920073232042017</v>
+      </c>
+      <c r="I2">
+        <v>0.02616627128895089</v>
+      </c>
+      <c r="J2">
+        <v>0.02785398736539623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2129540573369378</v>
+        <v>0.1610448513109848</v>
       </c>
       <c r="C3">
-        <v>0.0930001478787459</v>
+        <v>0.08636185451294653</v>
       </c>
       <c r="D3">
-        <v>-0.08107727751703879</v>
+        <v>0.03465627167056737</v>
       </c>
       <c r="E3">
-        <v>0.3081160144346279</v>
+        <v>-0.2415035608933289</v>
       </c>
       <c r="F3">
-        <v>-0.02831112117856294</v>
+        <v>-0.301931745809737</v>
       </c>
       <c r="G3">
-        <v>-0.383428038461932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.02101169377956927</v>
+      </c>
+      <c r="H3">
+        <v>0.2924636340228712</v>
+      </c>
+      <c r="I3">
+        <v>0.1501668176725591</v>
+      </c>
+      <c r="J3">
+        <v>0.3293359328373429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09952111828151336</v>
+        <v>0.07300799221507673</v>
       </c>
       <c r="C4">
-        <v>0.02705014742242915</v>
+        <v>0.03494222940592899</v>
       </c>
       <c r="D4">
-        <v>0.003317505090569344</v>
+        <v>-0.02492072721728586</v>
       </c>
       <c r="E4">
-        <v>0.07034011257571247</v>
+        <v>-0.03475749169889929</v>
       </c>
       <c r="F4">
-        <v>-0.05417209404084</v>
+        <v>-0.08904152502551096</v>
       </c>
       <c r="G4">
-        <v>-0.03189438358555425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03509685230405192</v>
+      </c>
+      <c r="H4">
+        <v>0.03609285760608952</v>
+      </c>
+      <c r="I4">
+        <v>0.02919224533744633</v>
+      </c>
+      <c r="J4">
+        <v>0.04518051425459271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01366942749950122</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003337185452610255</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.000353823012165959</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.002873329142210459</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.003261624368476896</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01906470333196139</v>
+      </c>
+      <c r="H6">
+        <v>0.002938941371342277</v>
+      </c>
+      <c r="I6">
+        <v>-0.001436033745219216</v>
+      </c>
+      <c r="J6">
+        <v>0.0003056558802574423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04396095535751974</v>
+        <v>0.03415226268712759</v>
       </c>
       <c r="C7">
-        <v>0.006531209150123627</v>
+        <v>0.01810318956443167</v>
       </c>
       <c r="D7">
-        <v>0.02314914185841382</v>
+        <v>-0.01914692206051461</v>
       </c>
       <c r="E7">
-        <v>0.08583552019122587</v>
+        <v>-0.03270028111898662</v>
       </c>
       <c r="F7">
-        <v>0.02825989428302598</v>
+        <v>-0.05129251704516826</v>
       </c>
       <c r="G7">
-        <v>-0.01788012645645871</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01321784663984321</v>
+      </c>
+      <c r="H7">
+        <v>0.04498017637300424</v>
+      </c>
+      <c r="I7">
+        <v>0.001442721433712713</v>
+      </c>
+      <c r="J7">
+        <v>0.01445637521051501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04356634682078989</v>
+        <v>0.03193255523213646</v>
       </c>
       <c r="C8">
-        <v>0.03890417042216897</v>
+        <v>0.03796734437268832</v>
       </c>
       <c r="D8">
-        <v>-0.008825898646699439</v>
+        <v>-0.007633954569149064</v>
       </c>
       <c r="E8">
-        <v>0.06767199247797145</v>
+        <v>-0.03465488367520608</v>
       </c>
       <c r="F8">
-        <v>-0.002354569668017465</v>
+        <v>-0.07759314553711862</v>
       </c>
       <c r="G8">
-        <v>-0.04978210705352124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.002632198274869509</v>
+      </c>
+      <c r="H8">
+        <v>0.05565211467064569</v>
+      </c>
+      <c r="I8">
+        <v>0.02852372351002649</v>
+      </c>
+      <c r="J8">
+        <v>0.03889305989858706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08665583919487606</v>
+        <v>0.06278131297745479</v>
       </c>
       <c r="C9">
-        <v>0.02807277971168212</v>
+        <v>0.03491158087237857</v>
       </c>
       <c r="D9">
-        <v>0.0177180101459076</v>
+        <v>-0.02603437071077285</v>
       </c>
       <c r="E9">
-        <v>0.0659353026725476</v>
+        <v>-0.03156555529550857</v>
       </c>
       <c r="F9">
-        <v>-0.03587269787225013</v>
+        <v>-0.08975527641417172</v>
       </c>
       <c r="G9">
-        <v>-0.02153025011368605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02490952268342086</v>
+      </c>
+      <c r="H9">
+        <v>0.03063107661783608</v>
+      </c>
+      <c r="I9">
+        <v>0.009512825552702666</v>
+      </c>
+      <c r="J9">
+        <v>0.008532273852303308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.01162296058403343</v>
+        <v>0.01334744669596427</v>
       </c>
       <c r="C10">
-        <v>-0.1624187987378835</v>
+        <v>-0.160377137953482</v>
       </c>
       <c r="D10">
-        <v>-0.0146653308350929</v>
+        <v>0.01703430508245857</v>
       </c>
       <c r="E10">
-        <v>0.04916298492741459</v>
+        <v>-0.0481855655916216</v>
       </c>
       <c r="F10">
-        <v>-0.01145414572826263</v>
+        <v>-0.03462227574863625</v>
       </c>
       <c r="G10">
-        <v>-0.003452751336517124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02118996833695343</v>
+      </c>
+      <c r="H10">
+        <v>-0.0100611024038249</v>
+      </c>
+      <c r="I10">
+        <v>0.1171303780185173</v>
+      </c>
+      <c r="J10">
+        <v>0.01127607540619625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05639334534056101</v>
+        <v>0.04802016630952383</v>
       </c>
       <c r="C11">
-        <v>0.004316224011677555</v>
+        <v>0.0222748035188357</v>
       </c>
       <c r="D11">
-        <v>-0.01271952282443719</v>
+        <v>-0.005732386697741426</v>
       </c>
       <c r="E11">
-        <v>0.0411520573264211</v>
+        <v>-0.03891536231400214</v>
       </c>
       <c r="F11">
-        <v>-0.01179960794301948</v>
+        <v>-0.0243360034121253</v>
       </c>
       <c r="G11">
-        <v>0.007153107113961436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.002583270254382913</v>
+      </c>
+      <c r="H11">
+        <v>0.0149749729955868</v>
+      </c>
+      <c r="I11">
+        <v>-0.01625619250621655</v>
+      </c>
+      <c r="J11">
+        <v>0.0116159664712597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04666891328200291</v>
+        <v>0.0460813631573426</v>
       </c>
       <c r="C12">
-        <v>0.009213999655671729</v>
+        <v>0.02178428114889956</v>
       </c>
       <c r="D12">
-        <v>-0.007308242715162012</v>
+        <v>-0.007289245690888806</v>
       </c>
       <c r="E12">
-        <v>0.02964162275234977</v>
+        <v>-0.0128243657394716</v>
       </c>
       <c r="F12">
-        <v>-0.006068796705002644</v>
+        <v>-0.02245592799999468</v>
       </c>
       <c r="G12">
-        <v>0.004893441581695484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.001961616234552016</v>
+      </c>
+      <c r="H12">
+        <v>0.005467620426159491</v>
+      </c>
+      <c r="I12">
+        <v>-0.01991648498389645</v>
+      </c>
+      <c r="J12">
+        <v>0.00397124518004083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06036600408392384</v>
+        <v>0.0403907786807778</v>
       </c>
       <c r="C13">
-        <v>0.01915729838167144</v>
+        <v>0.02245304507457717</v>
       </c>
       <c r="D13">
-        <v>-0.02470687723031845</v>
+        <v>-0.006554833156634243</v>
       </c>
       <c r="E13">
-        <v>0.1036023604064491</v>
+        <v>-0.08029368523629142</v>
       </c>
       <c r="F13">
-        <v>-0.025367847255504</v>
+        <v>-0.06683123795906899</v>
       </c>
       <c r="G13">
-        <v>-0.05807695617457884</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.006950460387526693</v>
+      </c>
+      <c r="H13">
+        <v>0.0596082442071906</v>
+      </c>
+      <c r="I13">
+        <v>0.01124630161704709</v>
+      </c>
+      <c r="J13">
+        <v>0.01922379651138579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03723647875019812</v>
+        <v>0.02724003852539836</v>
       </c>
       <c r="C14">
-        <v>0.008556337230376956</v>
+        <v>0.0150382227737034</v>
       </c>
       <c r="D14">
-        <v>0.01604018891081911</v>
+        <v>-0.02233698752013594</v>
       </c>
       <c r="E14">
-        <v>0.02282032397904261</v>
+        <v>-0.01904193484003466</v>
       </c>
       <c r="F14">
-        <v>0.003938934506224022</v>
+        <v>-0.03577322637335709</v>
       </c>
       <c r="G14">
-        <v>-0.05316752333412956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01303011110567392</v>
+      </c>
+      <c r="H14">
+        <v>0.0610682200144979</v>
+      </c>
+      <c r="I14">
+        <v>0.01962987225946942</v>
+      </c>
+      <c r="J14">
+        <v>-0.005619880415549819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04858523079953068</v>
+        <v>0.04137763893694738</v>
       </c>
       <c r="C16">
-        <v>0.02243199950716626</v>
+        <v>0.02978891859986511</v>
       </c>
       <c r="D16">
-        <v>-0.02109794520017534</v>
+        <v>-0.0009400440444545176</v>
       </c>
       <c r="E16">
-        <v>0.03561764797932915</v>
+        <v>-0.03157827660005303</v>
       </c>
       <c r="F16">
-        <v>-0.004887743240847097</v>
+        <v>-0.02351188914066277</v>
       </c>
       <c r="G16">
-        <v>0.01330893886937745</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005284335063260277</v>
+      </c>
+      <c r="H16">
+        <v>0.01466164787188495</v>
+      </c>
+      <c r="I16">
+        <v>-0.01486849018314086</v>
+      </c>
+      <c r="J16">
+        <v>0.01128388939843266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05339987482801886</v>
+        <v>0.04461622515824874</v>
       </c>
       <c r="C19">
-        <v>0.03163879337347508</v>
+        <v>0.03655624511264138</v>
       </c>
       <c r="D19">
-        <v>-0.0101268488726509</v>
+        <v>-0.009353232640342301</v>
       </c>
       <c r="E19">
-        <v>0.07389026552378961</v>
+        <v>-0.06051855810821396</v>
       </c>
       <c r="F19">
-        <v>0.0009269443485735408</v>
+        <v>-0.06908240092267176</v>
       </c>
       <c r="G19">
-        <v>-0.07369863049798873</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.004906757111335518</v>
+      </c>
+      <c r="H19">
+        <v>0.08838650609532535</v>
+      </c>
+      <c r="I19">
+        <v>0.0428991656292276</v>
+      </c>
+      <c r="J19">
+        <v>0.01547837668942501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03847847027977561</v>
+        <v>0.01877617929356329</v>
       </c>
       <c r="C20">
-        <v>0.03442372407572464</v>
+        <v>0.03344229294835887</v>
       </c>
       <c r="D20">
-        <v>0.001489101410199064</v>
+        <v>-0.0158522930869176</v>
       </c>
       <c r="E20">
-        <v>0.06634319610886887</v>
+        <v>-0.03923664952238058</v>
       </c>
       <c r="F20">
-        <v>0.01293361551556512</v>
+        <v>-0.06065466926718792</v>
       </c>
       <c r="G20">
-        <v>-0.05009303903428595</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01144207766508289</v>
+      </c>
+      <c r="H20">
+        <v>0.07592300992477298</v>
+      </c>
+      <c r="I20">
+        <v>0.0174797520231218</v>
+      </c>
+      <c r="J20">
+        <v>0.0470313480832413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03868039925343389</v>
+        <v>0.01785583912464728</v>
       </c>
       <c r="C21">
-        <v>0.01760741486035857</v>
+        <v>0.02519441433031286</v>
       </c>
       <c r="D21">
-        <v>-0.01975740185575523</v>
+        <v>0.00329916406840632</v>
       </c>
       <c r="E21">
-        <v>0.08161449405248644</v>
+        <v>-0.04201610881236525</v>
       </c>
       <c r="F21">
-        <v>-0.04445465234898414</v>
+        <v>-0.06871102171322672</v>
       </c>
       <c r="G21">
-        <v>-0.0580594934498489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01859521214192382</v>
+      </c>
+      <c r="H21">
+        <v>0.04504910233950816</v>
+      </c>
+      <c r="I21">
+        <v>-0.006105305925160154</v>
+      </c>
+      <c r="J21">
+        <v>-0.012095981648463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04891748099231872</v>
+        <v>0.04164868547423924</v>
       </c>
       <c r="C24">
-        <v>0.01312943722743895</v>
+        <v>0.0193448445617672</v>
       </c>
       <c r="D24">
-        <v>-0.01013608595337105</v>
+        <v>-0.006034555125053305</v>
       </c>
       <c r="E24">
-        <v>0.0462516861238237</v>
+        <v>-0.03380906283485741</v>
       </c>
       <c r="F24">
-        <v>-0.004835012353240575</v>
+        <v>-0.02864018692627849</v>
       </c>
       <c r="G24">
-        <v>0.00931637885927329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01025408807806632</v>
+      </c>
+      <c r="H24">
+        <v>0.01539406872644159</v>
+      </c>
+      <c r="I24">
+        <v>-0.01271187171867979</v>
+      </c>
+      <c r="J24">
+        <v>0.01868092122800994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.04954951901299465</v>
+        <v>0.04268928584033553</v>
       </c>
       <c r="C25">
-        <v>0.005269154879182564</v>
+        <v>0.02019118090687747</v>
       </c>
       <c r="D25">
-        <v>-0.01262343776022437</v>
+        <v>-0.003277801165844587</v>
       </c>
       <c r="E25">
-        <v>0.04311330017923855</v>
+        <v>-0.0357140465352753</v>
       </c>
       <c r="F25">
-        <v>-0.01341541184928993</v>
+        <v>-0.0332975341585293</v>
       </c>
       <c r="G25">
-        <v>0.008569375042885616</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.002583422612298711</v>
+      </c>
+      <c r="H25">
+        <v>0.009298529797929011</v>
+      </c>
+      <c r="I25">
+        <v>-0.01506096168335289</v>
+      </c>
+      <c r="J25">
+        <v>0.007818194620297389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.004995660284992867</v>
+        <v>0.0114850418093657</v>
       </c>
       <c r="C26">
-        <v>0.01716009514340653</v>
+        <v>0.01757210933479389</v>
       </c>
       <c r="D26">
-        <v>0.002320216992720539</v>
+        <v>0.001592715934584567</v>
       </c>
       <c r="E26">
-        <v>0.04932766043230356</v>
+        <v>-0.04312703624277642</v>
       </c>
       <c r="F26">
-        <v>-0.02565207490004903</v>
+        <v>-0.03143186201695122</v>
       </c>
       <c r="G26">
-        <v>-0.02602407349494262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.00950051579044825</v>
+      </c>
+      <c r="H26">
+        <v>0.03862057099936458</v>
+      </c>
+      <c r="I26">
+        <v>-0.00224424073079647</v>
+      </c>
+      <c r="J26">
+        <v>0.01712968372355546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1130051064285296</v>
+        <v>0.08681397973680371</v>
       </c>
       <c r="C27">
-        <v>0.01793073452140885</v>
+        <v>0.02748864859817916</v>
       </c>
       <c r="D27">
-        <v>0.001936281521301853</v>
+        <v>-0.02904191693808725</v>
       </c>
       <c r="E27">
-        <v>0.1109381435857553</v>
+        <v>-0.0450300362509093</v>
       </c>
       <c r="F27">
-        <v>-0.02287604407798841</v>
+        <v>-0.07543905136316768</v>
       </c>
       <c r="G27">
-        <v>0.01034461050845628</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.001058593217360909</v>
+      </c>
+      <c r="H27">
+        <v>0.01307832857845586</v>
+      </c>
+      <c r="I27">
+        <v>0.00397215994965576</v>
+      </c>
+      <c r="J27">
+        <v>0.02972920817487665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.01092067967001274</v>
+        <v>0.0263991026799746</v>
       </c>
       <c r="C28">
-        <v>-0.2411388605980117</v>
+        <v>-0.2322110148722863</v>
       </c>
       <c r="D28">
-        <v>-0.02407634969874223</v>
+        <v>0.02520265801345543</v>
       </c>
       <c r="E28">
-        <v>0.02409838805666732</v>
+        <v>-0.03931656854705379</v>
       </c>
       <c r="F28">
-        <v>-0.009456580943081574</v>
+        <v>-0.02764922495544899</v>
       </c>
       <c r="G28">
-        <v>0.02473404717064309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02608713198756285</v>
+      </c>
+      <c r="H28">
+        <v>-0.03067941845007145</v>
+      </c>
+      <c r="I28">
+        <v>0.1649617728250114</v>
+      </c>
+      <c r="J28">
+        <v>0.02859449006737828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02076815050319069</v>
+        <v>0.01916256888720889</v>
       </c>
       <c r="C29">
-        <v>0.01775053182498865</v>
+        <v>0.01836344754686274</v>
       </c>
       <c r="D29">
-        <v>0.019109248962785</v>
+        <v>-0.02142778028114307</v>
       </c>
       <c r="E29">
-        <v>0.03086586093124655</v>
+        <v>-0.01379223790168179</v>
       </c>
       <c r="F29">
-        <v>-0.01043705249212791</v>
+        <v>-0.04067772743336134</v>
       </c>
       <c r="G29">
-        <v>-0.05136796699374189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01380008733871334</v>
+      </c>
+      <c r="H29">
+        <v>0.05785819787036076</v>
+      </c>
+      <c r="I29">
+        <v>0.009648237143532121</v>
+      </c>
+      <c r="J29">
+        <v>-0.01560217991378137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1048928117553987</v>
+        <v>0.09817585506068929</v>
       </c>
       <c r="C30">
-        <v>0.01147159255615398</v>
+        <v>0.03608602081995299</v>
       </c>
       <c r="D30">
-        <v>-9.520936159004918e-05</v>
+        <v>-0.03072040695203744</v>
       </c>
       <c r="E30">
-        <v>0.1253804862245102</v>
+        <v>-0.08832125527270483</v>
       </c>
       <c r="F30">
-        <v>-0.03659000389990512</v>
+        <v>-0.0719939268966113</v>
       </c>
       <c r="G30">
-        <v>0.06469915925893988</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01547132956152028</v>
+      </c>
+      <c r="H30">
+        <v>0.01309351266125657</v>
+      </c>
+      <c r="I30">
+        <v>-0.02987526077174876</v>
+      </c>
+      <c r="J30">
+        <v>-0.002429767444780141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05645097034026592</v>
+        <v>0.05891244524751151</v>
       </c>
       <c r="C31">
-        <v>0.01152362492776958</v>
+        <v>0.01839628922047978</v>
       </c>
       <c r="D31">
-        <v>0.02029313471271031</v>
+        <v>-0.01914508782741738</v>
       </c>
       <c r="E31">
-        <v>-0.01947739394515017</v>
+        <v>-0.01261325407842011</v>
       </c>
       <c r="F31">
-        <v>-0.00560693825424797</v>
+        <v>0.006146338245791455</v>
       </c>
       <c r="G31">
-        <v>-0.0261009654822052</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03453031169104508</v>
+      </c>
+      <c r="H31">
+        <v>0.04880219069658649</v>
+      </c>
+      <c r="I31">
+        <v>0.01618963670679301</v>
+      </c>
+      <c r="J31">
+        <v>-0.0153599110093187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06842828672955485</v>
+        <v>0.04674123287133636</v>
       </c>
       <c r="C32">
-        <v>0.0281797060287599</v>
+        <v>0.04392860321248734</v>
       </c>
       <c r="D32">
-        <v>-0.005273351999098665</v>
+        <v>-0.02215267285120605</v>
       </c>
       <c r="E32">
-        <v>0.1189498865842585</v>
+        <v>-0.05400516781818325</v>
       </c>
       <c r="F32">
-        <v>0.006231897238300341</v>
+        <v>-0.08234298167244691</v>
       </c>
       <c r="G32">
-        <v>-0.05784380188040691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01264035102335262</v>
+      </c>
+      <c r="H32">
+        <v>0.05859582593245489</v>
+      </c>
+      <c r="I32">
+        <v>0.02008754991744845</v>
+      </c>
+      <c r="J32">
+        <v>-0.0006391177543445591</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06976569417927769</v>
+        <v>0.05788447903432262</v>
       </c>
       <c r="C33">
-        <v>0.03039015857426566</v>
+        <v>0.04521385590299405</v>
       </c>
       <c r="D33">
-        <v>-6.40469817574158e-05</v>
+        <v>-0.006948471498250675</v>
       </c>
       <c r="E33">
-        <v>0.06901521508684907</v>
+        <v>-0.06243859629163339</v>
       </c>
       <c r="F33">
-        <v>-0.04243403904986819</v>
+        <v>-0.05582612832064787</v>
       </c>
       <c r="G33">
-        <v>-0.03141741257999123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.0165054753789917</v>
+      </c>
+      <c r="H33">
+        <v>0.05252135323897171</v>
+      </c>
+      <c r="I33">
+        <v>-0.01509333872754713</v>
+      </c>
+      <c r="J33">
+        <v>0.01177206021808091</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04690833858104942</v>
+        <v>0.041232989085807</v>
       </c>
       <c r="C34">
-        <v>0.01286904673320366</v>
+        <v>0.02460204023626545</v>
       </c>
       <c r="D34">
-        <v>-0.0091332921739534</v>
+        <v>-0.008859827915001501</v>
       </c>
       <c r="E34">
-        <v>0.02562826738022222</v>
+        <v>-0.02607232952866334</v>
       </c>
       <c r="F34">
-        <v>0.0018624223364296</v>
+        <v>-0.02551236662660989</v>
       </c>
       <c r="G34">
-        <v>-0.009425489950844333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0003086453801914483</v>
+      </c>
+      <c r="H34">
+        <v>0.01986020547131031</v>
+      </c>
+      <c r="I34">
+        <v>-0.0145471738445164</v>
+      </c>
+      <c r="J34">
+        <v>0.0006888479877916959</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01285722772702658</v>
+        <v>0.01462521630226855</v>
       </c>
       <c r="C36">
-        <v>-0.00924580284351758</v>
+        <v>0.001276180571567533</v>
       </c>
       <c r="D36">
-        <v>0.004019243698770637</v>
+        <v>-0.007419950724686325</v>
       </c>
       <c r="E36">
-        <v>0.02318403164536011</v>
+        <v>-0.01641369249436506</v>
       </c>
       <c r="F36">
-        <v>-0.0116014321089611</v>
+        <v>-0.02504704197606262</v>
       </c>
       <c r="G36">
-        <v>-0.02070624573712358</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.0146778860636316</v>
+      </c>
+      <c r="H36">
+        <v>0.03357434726296907</v>
+      </c>
+      <c r="I36">
+        <v>0.004548705175410239</v>
+      </c>
+      <c r="J36">
+        <v>-0.01563363161781968</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05546143794944367</v>
+        <v>0.03125965740856934</v>
       </c>
       <c r="C38">
-        <v>0.003719681624725634</v>
+        <v>0.008278898527106539</v>
       </c>
       <c r="D38">
-        <v>0.01947388512402258</v>
+        <v>-0.00767823286083518</v>
       </c>
       <c r="E38">
-        <v>0.03371213627427298</v>
+        <v>-0.02868851773399267</v>
       </c>
       <c r="F38">
-        <v>-0.009194018182756848</v>
+        <v>-0.0430726904762918</v>
       </c>
       <c r="G38">
-        <v>-0.04012477547021367</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02148899586077069</v>
+      </c>
+      <c r="H38">
+        <v>0.02027774290916411</v>
+      </c>
+      <c r="I38">
+        <v>-0.003370475861976151</v>
+      </c>
+      <c r="J38">
+        <v>-0.0282424590755189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07520800845856221</v>
+        <v>0.05819061593094604</v>
       </c>
       <c r="C39">
-        <v>0.01527549972716907</v>
+        <v>0.03597361846132945</v>
       </c>
       <c r="D39">
-        <v>-0.007284645873896869</v>
+        <v>-0.01693875968428946</v>
       </c>
       <c r="E39">
-        <v>0.04588488733210617</v>
+        <v>-0.05188686919074307</v>
       </c>
       <c r="F39">
-        <v>-0.02919435096381222</v>
+        <v>-0.03360196890906549</v>
       </c>
       <c r="G39">
-        <v>0.00508249066667617</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01112887858305117</v>
+      </c>
+      <c r="H39">
+        <v>0.01662362218032278</v>
+      </c>
+      <c r="I39">
+        <v>-0.03320810675488559</v>
+      </c>
+      <c r="J39">
+        <v>0.00769852772151202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07194454985475515</v>
+        <v>0.05607620280623458</v>
       </c>
       <c r="C40">
-        <v>0.03076827307113493</v>
+        <v>0.0347417930827266</v>
       </c>
       <c r="D40">
-        <v>-0.01240180024520759</v>
+        <v>-0.02363692855011457</v>
       </c>
       <c r="E40">
-        <v>0.1067339301979158</v>
+        <v>-0.09027829421932081</v>
       </c>
       <c r="F40">
-        <v>-0.03867093542567895</v>
+        <v>-0.06424915573102712</v>
       </c>
       <c r="G40">
-        <v>-0.09817267298056691</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.001120873869395091</v>
+      </c>
+      <c r="H40">
+        <v>0.08196465712097585</v>
+      </c>
+      <c r="I40">
+        <v>0.005227846355585534</v>
+      </c>
+      <c r="J40">
+        <v>0.04362306659037898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.004134977431773489</v>
+        <v>0.0009785973297475868</v>
       </c>
       <c r="C41">
-        <v>0.01208960253769116</v>
+        <v>0.0103900552207223</v>
       </c>
       <c r="D41">
-        <v>0.01425169469539016</v>
+        <v>-0.005104703624957982</v>
       </c>
       <c r="E41">
-        <v>0.01015793800392295</v>
+        <v>-0.00749570070839786</v>
       </c>
       <c r="F41">
-        <v>-0.02178129374161516</v>
+        <v>-0.01582574751846131</v>
       </c>
       <c r="G41">
-        <v>-0.03404359895682313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02637365532358896</v>
+      </c>
+      <c r="H41">
+        <v>0.04054873263388389</v>
+      </c>
+      <c r="I41">
+        <v>0.02430303696972584</v>
+      </c>
+      <c r="J41">
+        <v>0.001138741480272353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1291907095460997</v>
+        <v>0.2338105103036103</v>
       </c>
       <c r="C42">
-        <v>0.1847327759633952</v>
+        <v>0.1652909641800749</v>
       </c>
       <c r="D42">
-        <v>-0.9209618683808212</v>
+        <v>0.9094576522186315</v>
       </c>
       <c r="E42">
-        <v>-0.1568132579754974</v>
+        <v>-0.02318561534227122</v>
       </c>
       <c r="F42">
-        <v>0.0288439258800282</v>
+        <v>0.2421049658385937</v>
       </c>
       <c r="G42">
-        <v>0.1415583790924157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.004656274087106341</v>
+      </c>
+      <c r="H42">
+        <v>-0.002884189784335641</v>
+      </c>
+      <c r="I42">
+        <v>0.05704382798567124</v>
+      </c>
+      <c r="J42">
+        <v>0.007648335207981414</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.007325720151631074</v>
+        <v>0.002747887269608121</v>
       </c>
       <c r="C43">
-        <v>0.01544287505436982</v>
+        <v>0.01324187438978608</v>
       </c>
       <c r="D43">
-        <v>0.01351193196223634</v>
+        <v>-0.006064049110647483</v>
       </c>
       <c r="E43">
-        <v>0.03270659487931007</v>
+        <v>-0.01769727021620637</v>
       </c>
       <c r="F43">
-        <v>0.0004523020658919616</v>
+        <v>-0.02331146040766799</v>
       </c>
       <c r="G43">
-        <v>-0.02798072149053035</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.007314808733211508</v>
+      </c>
+      <c r="H43">
+        <v>0.03922961807058716</v>
+      </c>
+      <c r="I43">
+        <v>0.01487355253756741</v>
+      </c>
+      <c r="J43">
+        <v>0.004447437727050888</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.0413083291881506</v>
+        <v>0.02695509464825915</v>
       </c>
       <c r="C44">
-        <v>0.03796253087290556</v>
+        <v>0.03217625352007115</v>
       </c>
       <c r="D44">
-        <v>-0.007558847722827896</v>
+        <v>-0.001969321747081878</v>
       </c>
       <c r="E44">
-        <v>0.1090201066696689</v>
+        <v>-0.08102055144364965</v>
       </c>
       <c r="F44">
-        <v>-0.07488345993996276</v>
+        <v>-0.09191850178786951</v>
       </c>
       <c r="G44">
-        <v>-0.1509633278433881</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03044092434794466</v>
+      </c>
+      <c r="H44">
+        <v>0.1182461055260862</v>
+      </c>
+      <c r="I44">
+        <v>0.02273365469474787</v>
+      </c>
+      <c r="J44">
+        <v>0.0109773146004402</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02148095713872822</v>
+        <v>0.02103763638506055</v>
       </c>
       <c r="C46">
-        <v>0.01504212147254659</v>
+        <v>0.02533263196644414</v>
       </c>
       <c r="D46">
-        <v>0.02142316148566742</v>
+        <v>-0.01951995005701512</v>
       </c>
       <c r="E46">
-        <v>0.02264419312588365</v>
+        <v>-0.02919151818421422</v>
       </c>
       <c r="F46">
-        <v>-0.02702605306528129</v>
+        <v>-0.03700560221086541</v>
       </c>
       <c r="G46">
-        <v>-0.05285322770192499</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01721618218816507</v>
+      </c>
+      <c r="H46">
+        <v>0.06241918905699582</v>
+      </c>
+      <c r="I46">
+        <v>0.01735761417946562</v>
+      </c>
+      <c r="J46">
+        <v>0.007803546707116586</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.0800632265327402</v>
+        <v>0.08794333355288682</v>
       </c>
       <c r="C47">
-        <v>0.006880093472272934</v>
+        <v>0.01786123808466742</v>
       </c>
       <c r="D47">
-        <v>0.02261021168483839</v>
+        <v>-0.02398834904088204</v>
       </c>
       <c r="E47">
-        <v>-0.02029883035290118</v>
+        <v>0.002587123326367924</v>
       </c>
       <c r="F47">
-        <v>-0.0006880671541552146</v>
+        <v>0.004195108424828309</v>
       </c>
       <c r="G47">
-        <v>-0.04971694737508402</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03130246766611018</v>
+      </c>
+      <c r="H47">
+        <v>0.06701102483923663</v>
+      </c>
+      <c r="I47">
+        <v>0.02414830976200592</v>
+      </c>
+      <c r="J47">
+        <v>-0.002232670036713034</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.0157999655661025</v>
+        <v>0.01644696648009721</v>
       </c>
       <c r="C48">
-        <v>0.01663084539948058</v>
+        <v>0.01917074321956619</v>
       </c>
       <c r="D48">
-        <v>0.01114959061309882</v>
+        <v>-0.009306147004105087</v>
       </c>
       <c r="E48">
-        <v>0.03351970307296256</v>
+        <v>-0.01772136734893053</v>
       </c>
       <c r="F48">
-        <v>-0.01833522811216255</v>
+        <v>-0.03187217822278963</v>
       </c>
       <c r="G48">
-        <v>-0.01427244543151104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.008458797426582157</v>
+      </c>
+      <c r="H48">
+        <v>0.02531014255492971</v>
+      </c>
+      <c r="I48">
+        <v>0.01530927364307666</v>
+      </c>
+      <c r="J48">
+        <v>0.002112894936184689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07848545474492542</v>
+        <v>0.08181177660507206</v>
       </c>
       <c r="C50">
-        <v>0.02041632442230303</v>
+        <v>0.02871892940017191</v>
       </c>
       <c r="D50">
-        <v>0.02481480971856685</v>
+        <v>-0.01996666971120981</v>
       </c>
       <c r="E50">
-        <v>-0.02688509455097787</v>
+        <v>0.004446669057603029</v>
       </c>
       <c r="F50">
-        <v>0.002412916815162296</v>
+        <v>-0.003266311721283729</v>
       </c>
       <c r="G50">
-        <v>-0.02686107175659961</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.003435367874626249</v>
+      </c>
+      <c r="H50">
+        <v>0.05390199971192317</v>
+      </c>
+      <c r="I50">
+        <v>0.008009014394907232</v>
+      </c>
+      <c r="J50">
+        <v>-0.04819907156941308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.07030452144915116</v>
+        <v>0.04718256420971787</v>
       </c>
       <c r="C51">
-        <v>-0.01832691198037277</v>
+        <v>-0.002703284965980819</v>
       </c>
       <c r="D51">
-        <v>-0.01184525101708775</v>
+        <v>-0.009009982428366269</v>
       </c>
       <c r="E51">
-        <v>0.06937379594503054</v>
+        <v>-0.07871886983317405</v>
       </c>
       <c r="F51">
-        <v>-0.05981789353026205</v>
+        <v>-0.05424313527815579</v>
       </c>
       <c r="G51">
-        <v>-0.05011735010479661</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04593320628762872</v>
+      </c>
+      <c r="H51">
+        <v>0.06295732950392692</v>
+      </c>
+      <c r="I51">
+        <v>0.03603809371956872</v>
+      </c>
+      <c r="J51">
+        <v>0.003407441633455916</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1437322964923515</v>
+        <v>0.1287135133874421</v>
       </c>
       <c r="C53">
-        <v>0.01161936301038666</v>
+        <v>0.03525744057919786</v>
       </c>
       <c r="D53">
-        <v>0.04880622165204972</v>
+        <v>-0.04885404636644401</v>
       </c>
       <c r="E53">
-        <v>-0.03277447766031172</v>
+        <v>0.024458624209205</v>
       </c>
       <c r="F53">
-        <v>0.00718312222035412</v>
+        <v>0.02167296049767883</v>
       </c>
       <c r="G53">
-        <v>-0.008144602316216982</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02351193155935567</v>
+      </c>
+      <c r="H53">
+        <v>0.009802331600522893</v>
+      </c>
+      <c r="I53">
+        <v>0.03367326068732832</v>
+      </c>
+      <c r="J53">
+        <v>0.04795163857763674</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02645000408645067</v>
+        <v>0.02337223556906392</v>
       </c>
       <c r="C54">
-        <v>-0.004484350335033746</v>
+        <v>0.00806086710664093</v>
       </c>
       <c r="D54">
-        <v>0.02077964239549318</v>
+        <v>-0.02379494046743071</v>
       </c>
       <c r="E54">
-        <v>0.03115146909544662</v>
+        <v>-0.01747680739849851</v>
       </c>
       <c r="F54">
-        <v>-0.0355840423788183</v>
+        <v>-0.04313127246092292</v>
       </c>
       <c r="G54">
-        <v>-0.06039895440005885</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02934914896189035</v>
+      </c>
+      <c r="H54">
+        <v>0.06396977080307474</v>
+      </c>
+      <c r="I54">
+        <v>0.03695659042674283</v>
+      </c>
+      <c r="J54">
+        <v>-0.02256930800892886</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09662837106909071</v>
+        <v>0.1011029689311277</v>
       </c>
       <c r="C55">
-        <v>-0.00194246006420469</v>
+        <v>0.01967271697885541</v>
       </c>
       <c r="D55">
-        <v>0.04056650527537627</v>
+        <v>-0.03083598645212007</v>
       </c>
       <c r="E55">
-        <v>0.004025988486196117</v>
+        <v>0.0351667911320861</v>
       </c>
       <c r="F55">
-        <v>0.02605230743145576</v>
+        <v>-0.005147799025742804</v>
       </c>
       <c r="G55">
-        <v>0.00611100204059454</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01180586819183177</v>
+      </c>
+      <c r="H55">
+        <v>0.02519109656379804</v>
+      </c>
+      <c r="I55">
+        <v>0.01400419040826872</v>
+      </c>
+      <c r="J55">
+        <v>0.03899690541061655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1771238403907258</v>
+        <v>0.1691189442817813</v>
       </c>
       <c r="C56">
-        <v>-0.01645957214929471</v>
+        <v>0.01700636826362099</v>
       </c>
       <c r="D56">
-        <v>0.08420553103791066</v>
+        <v>-0.08443489775084898</v>
       </c>
       <c r="E56">
-        <v>-0.05362641749603763</v>
+        <v>0.06585206080818648</v>
       </c>
       <c r="F56">
-        <v>0.06607138245516406</v>
+        <v>0.03790784342010394</v>
       </c>
       <c r="G56">
-        <v>0.02599957322840137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02218727553424372</v>
+      </c>
+      <c r="H56">
+        <v>-0.03302131047879354</v>
+      </c>
+      <c r="I56">
+        <v>-0.004078808264831355</v>
+      </c>
+      <c r="J56">
+        <v>0.07222488381700017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09139451184221582</v>
+        <v>0.06989303908540778</v>
       </c>
       <c r="C57">
-        <v>0.02342315172142134</v>
+        <v>0.02879517830742733</v>
       </c>
       <c r="D57">
-        <v>0.01887498479013255</v>
+        <v>-0.01272412981202264</v>
       </c>
       <c r="E57">
-        <v>0.06772089741172437</v>
+        <v>-0.05384203156272899</v>
       </c>
       <c r="F57">
-        <v>-0.01482382373006634</v>
+        <v>-0.04690563323600241</v>
       </c>
       <c r="G57">
-        <v>-0.05053746675388888</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.004691379780541812</v>
+      </c>
+      <c r="H57">
+        <v>0.04464189857700323</v>
+      </c>
+      <c r="I57">
+        <v>-0.01343629193241284</v>
+      </c>
+      <c r="J57">
+        <v>0.03797857088880748</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1628559954747059</v>
+        <v>0.193755258252879</v>
       </c>
       <c r="C58">
-        <v>-0.002208942743261212</v>
+        <v>0.04489588993971114</v>
       </c>
       <c r="D58">
-        <v>-0.07175704668855218</v>
+        <v>0.01212659864969314</v>
       </c>
       <c r="E58">
-        <v>0.1346855241676962</v>
+        <v>-0.1580520070198173</v>
       </c>
       <c r="F58">
-        <v>0.08343226465871149</v>
+        <v>-0.1157153470250017</v>
       </c>
       <c r="G58">
-        <v>-0.3094033767462089</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1707982000276284</v>
+      </c>
+      <c r="H58">
+        <v>0.3189846183957207</v>
+      </c>
+      <c r="I58">
+        <v>0.04262598361941088</v>
+      </c>
+      <c r="J58">
+        <v>-0.6191471249102032</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.001415816095119096</v>
+        <v>0.03062372491098168</v>
       </c>
       <c r="C59">
-        <v>-0.2037059732570658</v>
+        <v>-0.1982513742303496</v>
       </c>
       <c r="D59">
-        <v>0.009116355434988047</v>
+        <v>-0.01057936664179495</v>
       </c>
       <c r="E59">
-        <v>0.04719434388256525</v>
+        <v>-0.06081076436280633</v>
       </c>
       <c r="F59">
-        <v>-0.01385189467597646</v>
+        <v>-0.02392856948876903</v>
       </c>
       <c r="G59">
-        <v>0.02603317500270323</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.003999393487488399</v>
+      </c>
+      <c r="H59">
+        <v>-0.02319347292662015</v>
+      </c>
+      <c r="I59">
+        <v>0.07583673421359814</v>
+      </c>
+      <c r="J59">
+        <v>-0.02372629941279628</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1879958091749611</v>
+        <v>0.1849285457783625</v>
       </c>
       <c r="C60">
-        <v>-0.1115664086868782</v>
+        <v>-0.05329230885702325</v>
       </c>
       <c r="D60">
-        <v>0.008006291786662702</v>
+        <v>-0.02734031354514559</v>
       </c>
       <c r="E60">
-        <v>0.173513322007799</v>
+        <v>-0.2023069576367285</v>
       </c>
       <c r="F60">
-        <v>-0.07030286245005236</v>
+        <v>-0.08309881111067698</v>
       </c>
       <c r="G60">
-        <v>0.1704668968744528</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.05659238621268681</v>
+      </c>
+      <c r="H60">
+        <v>-0.236789734607995</v>
+      </c>
+      <c r="I60">
+        <v>-0.1018689424044075</v>
+      </c>
+      <c r="J60">
+        <v>0.0007860638401840939</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.0466588660118477</v>
+        <v>0.03670657049061921</v>
       </c>
       <c r="C61">
-        <v>0.005702554664443326</v>
+        <v>0.02044185350705297</v>
       </c>
       <c r="D61">
-        <v>-0.01469437928947915</v>
+        <v>-0.00184634865483728</v>
       </c>
       <c r="E61">
-        <v>0.04722863219885585</v>
+        <v>-0.03878150021642959</v>
       </c>
       <c r="F61">
-        <v>-0.02992272647166557</v>
+        <v>-0.02736404223200641</v>
       </c>
       <c r="G61">
-        <v>0.01756792925932804</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.007067086437974915</v>
+      </c>
+      <c r="H61">
+        <v>0.002323501137229816</v>
+      </c>
+      <c r="I61">
+        <v>-0.03813680553142933</v>
+      </c>
+      <c r="J61">
+        <v>-0.01391430720811285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04227840210251477</v>
+        <v>0.02855973518113729</v>
       </c>
       <c r="C63">
-        <v>-0.006716180340825484</v>
+        <v>0.01478736249278214</v>
       </c>
       <c r="D63">
-        <v>0.01060268815261239</v>
+        <v>-0.01264401938770085</v>
       </c>
       <c r="E63">
-        <v>0.03716997820426225</v>
+        <v>-0.02353493926690598</v>
       </c>
       <c r="F63">
-        <v>-0.00838626222528294</v>
+        <v>-0.02078067133925567</v>
       </c>
       <c r="G63">
-        <v>-0.01961111784235393</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.005025365922548402</v>
+      </c>
+      <c r="H63">
+        <v>0.04714125870606772</v>
+      </c>
+      <c r="I63">
+        <v>0.03325756508602282</v>
+      </c>
+      <c r="J63">
+        <v>0.02708185132420172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.08870298841957511</v>
+        <v>0.06310321042018255</v>
       </c>
       <c r="C64">
-        <v>0.03088135981466287</v>
+        <v>0.04012359632191841</v>
       </c>
       <c r="D64">
-        <v>0.05262542994167414</v>
+        <v>-0.03657315156105568</v>
       </c>
       <c r="E64">
-        <v>0.05509960099372246</v>
+        <v>-0.01540190909866093</v>
       </c>
       <c r="F64">
-        <v>-0.1013983826300233</v>
+        <v>-0.073582498150303</v>
       </c>
       <c r="G64">
-        <v>0.07705289236427508</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06543562104979057</v>
+      </c>
+      <c r="H64">
+        <v>-0.01627539869877838</v>
+      </c>
+      <c r="I64">
+        <v>0.02381489616170177</v>
+      </c>
+      <c r="J64">
+        <v>0.06801434821635102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01501335092073488</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.003558382281765782</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.000410778826980128</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.00412532630021898</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001417293449173467</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.0199880713897358</v>
+      </c>
+      <c r="H65">
+        <v>-0.0007537789448784076</v>
+      </c>
+      <c r="I65">
+        <v>-0.003628417362650408</v>
+      </c>
+      <c r="J65">
+        <v>0.0003099439000460788</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09826336112968491</v>
+        <v>0.06996113655226648</v>
       </c>
       <c r="C66">
-        <v>0.02206085809552121</v>
+        <v>0.04954658460753009</v>
       </c>
       <c r="D66">
-        <v>0.02920366316501866</v>
+        <v>-0.04345135188670652</v>
       </c>
       <c r="E66">
-        <v>0.08412442804607297</v>
+        <v>-0.06662130095487548</v>
       </c>
       <c r="F66">
-        <v>-0.05259280495421891</v>
+        <v>-0.04487197979023302</v>
       </c>
       <c r="G66">
-        <v>0.00433404120992516</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01191645450379492</v>
+      </c>
+      <c r="H66">
+        <v>0.007456854698112524</v>
+      </c>
+      <c r="I66">
+        <v>-0.04782181718893819</v>
+      </c>
+      <c r="J66">
+        <v>0.03643941392068233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06305258501991239</v>
+        <v>0.04173138473355074</v>
       </c>
       <c r="C67">
-        <v>-0.01854036093974418</v>
+        <v>-0.006622828900537132</v>
       </c>
       <c r="D67">
-        <v>0.008434264837915021</v>
+        <v>-0.005859127527490662</v>
       </c>
       <c r="E67">
-        <v>0.02691999818658665</v>
+        <v>-0.02720070924990409</v>
       </c>
       <c r="F67">
-        <v>-0.008230787323056162</v>
+        <v>-0.02833179379758001</v>
       </c>
       <c r="G67">
-        <v>-0.03349827972202771</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02779504328921011</v>
+      </c>
+      <c r="H67">
+        <v>0.0041700379262538</v>
+      </c>
+      <c r="I67">
+        <v>-0.03831039048684556</v>
+      </c>
+      <c r="J67">
+        <v>-0.009714669705936589</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.0003067974109417728</v>
+        <v>0.03849895437307296</v>
       </c>
       <c r="C68">
-        <v>-0.2436658574343946</v>
+        <v>-0.2337253007459593</v>
       </c>
       <c r="D68">
-        <v>-0.008394505415973849</v>
+        <v>-0.0005960449291402603</v>
       </c>
       <c r="E68">
-        <v>0.03328500263120327</v>
+        <v>-0.04780426214802592</v>
       </c>
       <c r="F68">
-        <v>0.004761104352902163</v>
+        <v>-0.01933651516429528</v>
       </c>
       <c r="G68">
-        <v>0.005712160296569054</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.007706946501232269</v>
+      </c>
+      <c r="H68">
+        <v>-0.02305107775274318</v>
+      </c>
+      <c r="I68">
+        <v>0.1690542367430475</v>
+      </c>
+      <c r="J68">
+        <v>-0.01823095000189405</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06652677074797349</v>
+        <v>0.06985092912187026</v>
       </c>
       <c r="C69">
-        <v>0.005043435328442848</v>
+        <v>0.01582952122218265</v>
       </c>
       <c r="D69">
-        <v>0.02895867330647272</v>
+        <v>-0.03004393494625784</v>
       </c>
       <c r="E69">
-        <v>-0.005874220674557241</v>
+        <v>-0.007515332825306358</v>
       </c>
       <c r="F69">
-        <v>0.001906039963028175</v>
+        <v>0.001285549435301715</v>
       </c>
       <c r="G69">
-        <v>-0.02463026116936084</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02226098737904793</v>
+      </c>
+      <c r="H69">
+        <v>0.04662864686762198</v>
+      </c>
+      <c r="I69">
+        <v>-0.0007515293170674554</v>
+      </c>
+      <c r="J69">
+        <v>-0.002915307431024114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.005482160179248154</v>
+        <v>0.04218592033326725</v>
       </c>
       <c r="C71">
-        <v>-0.2559227657226785</v>
+        <v>-0.2469490607490693</v>
       </c>
       <c r="D71">
-        <v>-0.01208359803627669</v>
+        <v>0.01930252909084106</v>
       </c>
       <c r="E71">
-        <v>0.06103258108436577</v>
+        <v>-0.07886399014649556</v>
       </c>
       <c r="F71">
-        <v>-0.01909799223567691</v>
+        <v>-0.01527022254933477</v>
       </c>
       <c r="G71">
-        <v>0.09631490695199581</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01698808624633161</v>
+      </c>
+      <c r="H71">
+        <v>-0.04136019462234297</v>
+      </c>
+      <c r="I71">
+        <v>0.1434758722706308</v>
+      </c>
+      <c r="J71">
+        <v>-0.02858139568763928</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1182043092032076</v>
+        <v>0.118212499726815</v>
       </c>
       <c r="C72">
-        <v>-0.01589452621814132</v>
+        <v>0.005859302490326858</v>
       </c>
       <c r="D72">
-        <v>0.02557421350503749</v>
+        <v>-0.05694076184451842</v>
       </c>
       <c r="E72">
-        <v>0.0815844613400732</v>
+        <v>-0.05919904196140395</v>
       </c>
       <c r="F72">
-        <v>-0.01161205672744627</v>
+        <v>-0.06249568786543112</v>
       </c>
       <c r="G72">
-        <v>-0.04715741472720072</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03648172505650773</v>
+      </c>
+      <c r="H72">
+        <v>-0.003344346422271052</v>
+      </c>
+      <c r="I72">
+        <v>-0.01814806464352792</v>
+      </c>
+      <c r="J72">
+        <v>-0.1185686881160291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2877947917222944</v>
+        <v>0.279005816045688</v>
       </c>
       <c r="C73">
-        <v>-0.2030611885030383</v>
+        <v>-0.1082428259985155</v>
       </c>
       <c r="D73">
-        <v>-0.05150852615092145</v>
+        <v>0.004869038913581437</v>
       </c>
       <c r="E73">
-        <v>0.3029278228334842</v>
+        <v>-0.3191108574073601</v>
       </c>
       <c r="F73">
-        <v>-0.09142014469024314</v>
+        <v>-0.117743921967295</v>
       </c>
       <c r="G73">
-        <v>0.4198976630184391</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1237754858894749</v>
+      </c>
+      <c r="H73">
+        <v>-0.4428148856617152</v>
+      </c>
+      <c r="I73">
+        <v>-0.3478678802973321</v>
+      </c>
+      <c r="J73">
+        <v>-0.08960875360359773</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1569615975816642</v>
+        <v>0.1511476971393806</v>
       </c>
       <c r="C74">
-        <v>-0.005750103828946796</v>
+        <v>0.01883123977818813</v>
       </c>
       <c r="D74">
-        <v>0.05021621627630415</v>
+        <v>-0.04751027944257213</v>
       </c>
       <c r="E74">
-        <v>0.007271865624200392</v>
+        <v>0.02988852777025785</v>
       </c>
       <c r="F74">
-        <v>0.04408562806448386</v>
+        <v>0.02680467647203296</v>
       </c>
       <c r="G74">
-        <v>0.01437014948215567</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01550257707102422</v>
+      </c>
+      <c r="H74">
+        <v>-0.01768376117900704</v>
+      </c>
+      <c r="I74">
+        <v>-0.009266305305538821</v>
+      </c>
+      <c r="J74">
+        <v>0.09478009471836463</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2374140580953461</v>
+        <v>0.2436299723654974</v>
       </c>
       <c r="C75">
-        <v>-0.01149346147683107</v>
+        <v>0.02059144354670484</v>
       </c>
       <c r="D75">
-        <v>0.07095162599554453</v>
+        <v>-0.1020009592477898</v>
       </c>
       <c r="E75">
-        <v>-0.1135638646544696</v>
+        <v>0.09556311328938585</v>
       </c>
       <c r="F75">
-        <v>0.07035266150901513</v>
+        <v>0.09284550564384822</v>
       </c>
       <c r="G75">
-        <v>0.02611084521919402</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.006813262916700515</v>
+      </c>
+      <c r="H75">
+        <v>-0.0155216554585388</v>
+      </c>
+      <c r="I75">
+        <v>0.05408391300194731</v>
+      </c>
+      <c r="J75">
+        <v>0.1177361859976295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2401307901715856</v>
+        <v>0.2641726640041634</v>
       </c>
       <c r="C76">
-        <v>-0.01235480844524782</v>
+        <v>0.01665161162907786</v>
       </c>
       <c r="D76">
-        <v>0.1122935834621748</v>
+        <v>-0.1288606190614497</v>
       </c>
       <c r="E76">
-        <v>-0.09168778838564107</v>
+        <v>0.1364265273569208</v>
       </c>
       <c r="F76">
-        <v>0.08046031994276932</v>
+        <v>0.09560087527442657</v>
       </c>
       <c r="G76">
-        <v>0.03362759790480307</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04620996069223332</v>
+      </c>
+      <c r="H76">
+        <v>-0.02207977543648612</v>
+      </c>
+      <c r="I76">
+        <v>-0.02568937315541203</v>
+      </c>
+      <c r="J76">
+        <v>0.1396839386557</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1267274140265264</v>
+        <v>0.1290566122328324</v>
       </c>
       <c r="C77">
-        <v>0.02127211267523056</v>
+        <v>0.05088340141678635</v>
       </c>
       <c r="D77">
-        <v>-0.07849863997042759</v>
+        <v>0.04779209261874049</v>
       </c>
       <c r="E77">
-        <v>0.1593013471421663</v>
+        <v>-0.1170208384633252</v>
       </c>
       <c r="F77">
-        <v>-0.0156229724616465</v>
+        <v>-0.126511341084419</v>
       </c>
       <c r="G77">
-        <v>-0.1632988469297379</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.02030094524479136</v>
+      </c>
+      <c r="H77">
+        <v>0.1790876308734308</v>
+      </c>
+      <c r="I77">
+        <v>0.1609833581650486</v>
+      </c>
+      <c r="J77">
+        <v>0.09642581282641735</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.09436260845015165</v>
+        <v>0.08919894572547496</v>
       </c>
       <c r="C78">
-        <v>0.03123701927036295</v>
+        <v>0.05784158486826951</v>
       </c>
       <c r="D78">
-        <v>-0.02555573836697094</v>
+        <v>0.0002205125126066603</v>
       </c>
       <c r="E78">
-        <v>0.06013641954432973</v>
+        <v>-0.04931926892630549</v>
       </c>
       <c r="F78">
-        <v>-0.01196837682876778</v>
+        <v>-0.07210932286914699</v>
       </c>
       <c r="G78">
-        <v>0.01048791331343795</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.005225987354083347</v>
+      </c>
+      <c r="H78">
+        <v>0.02060468556881113</v>
+      </c>
+      <c r="I78">
+        <v>0.02874903122199614</v>
+      </c>
+      <c r="J78">
+        <v>0.01680149027625693</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07266088470948252</v>
+        <v>0.1187557310107679</v>
       </c>
       <c r="C80">
-        <v>-0.004160352333656742</v>
+        <v>-0.1224639070751108</v>
       </c>
       <c r="D80">
-        <v>-0.007173677900598966</v>
+        <v>0.2043270333659245</v>
       </c>
       <c r="E80">
-        <v>0.005305269985557641</v>
+        <v>0.6430703629287788</v>
       </c>
       <c r="F80">
-        <v>0.05348530192099638</v>
+        <v>-0.6892165201650473</v>
       </c>
       <c r="G80">
-        <v>-0.1621857074691874</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.004011716683101301</v>
+      </c>
+      <c r="H80">
+        <v>-0.1171339278770867</v>
+      </c>
+      <c r="I80">
+        <v>-0.07194916215210898</v>
+      </c>
+      <c r="J80">
+        <v>-0.08039418883160412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1604860806386851</v>
+        <v>0.1734803159310823</v>
       </c>
       <c r="C81">
-        <v>-0.01200021731406882</v>
+        <v>0.005325209004088201</v>
       </c>
       <c r="D81">
-        <v>0.06167875737912034</v>
+        <v>-0.08384508518885642</v>
       </c>
       <c r="E81">
-        <v>-0.1120888095273544</v>
+        <v>0.1077741530744652</v>
       </c>
       <c r="F81">
-        <v>0.0958383704464304</v>
+        <v>0.09708119225972876</v>
       </c>
       <c r="G81">
-        <v>0.0180843467311858</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02100480770136197</v>
+      </c>
+      <c r="H81">
+        <v>-0.0107534459695714</v>
+      </c>
+      <c r="I81">
+        <v>0.0257858659160165</v>
+      </c>
+      <c r="J81">
+        <v>0.06676734165430538</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.08113359253813708</v>
+        <v>0.06405269484415367</v>
       </c>
       <c r="C83">
-        <v>0.03573700800879608</v>
+        <v>0.0419247554614312</v>
       </c>
       <c r="D83">
-        <v>-0.09204706241806106</v>
+        <v>0.03926016177552438</v>
       </c>
       <c r="E83">
-        <v>0.01830125167042475</v>
+        <v>-0.05364724833281737</v>
       </c>
       <c r="F83">
-        <v>-0.06194623704676076</v>
+        <v>-0.02211557085389811</v>
       </c>
       <c r="G83">
-        <v>-0.03628670838947293</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04655838940225633</v>
+      </c>
+      <c r="H83">
+        <v>0.04091444576820721</v>
+      </c>
+      <c r="I83">
+        <v>0.02605685337022245</v>
+      </c>
+      <c r="J83">
+        <v>0.08658314556776449</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2384157724389704</v>
+        <v>0.2535945165714016</v>
       </c>
       <c r="C85">
-        <v>0.05058070204536418</v>
+        <v>0.0558094013509491</v>
       </c>
       <c r="D85">
-        <v>0.06764569387030599</v>
+        <v>-0.09047044748326094</v>
       </c>
       <c r="E85">
-        <v>-0.129924402541104</v>
+        <v>0.133455754410937</v>
       </c>
       <c r="F85">
-        <v>0.06493368437809861</v>
+        <v>0.09109319133806019</v>
       </c>
       <c r="G85">
-        <v>0.005638878233170639</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.001516361865227749</v>
+      </c>
+      <c r="H85">
+        <v>0.02263185956410322</v>
+      </c>
+      <c r="I85">
+        <v>0.04140731837935648</v>
+      </c>
+      <c r="J85">
+        <v>0.1418596767648632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04745567905685441</v>
+        <v>0.02702984635229438</v>
       </c>
       <c r="C86">
-        <v>0.03636659020709689</v>
+        <v>0.04192165445700702</v>
       </c>
       <c r="D86">
-        <v>0.0007318552969207395</v>
+        <v>-0.004639035853879426</v>
       </c>
       <c r="E86">
-        <v>0.04960978176206583</v>
+        <v>-0.03084946331404672</v>
       </c>
       <c r="F86">
-        <v>0.004879524562695444</v>
+        <v>-0.06072636840222543</v>
       </c>
       <c r="G86">
-        <v>-0.03846671420551679</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0008439147903988784</v>
+      </c>
+      <c r="H86">
+        <v>0.0495752123360771</v>
+      </c>
+      <c r="I86">
+        <v>0.05324215147335799</v>
+      </c>
+      <c r="J86">
+        <v>-0.003991390328330137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.0284051029868212</v>
+        <v>0.03637986798438266</v>
       </c>
       <c r="C87">
-        <v>-0.05540607772247027</v>
+        <v>-0.02292136087089148</v>
       </c>
       <c r="D87">
-        <v>0.01436109303634476</v>
+        <v>-0.004610246737402667</v>
       </c>
       <c r="E87">
-        <v>0.05783951837411409</v>
+        <v>-0.0706603461779599</v>
       </c>
       <c r="F87">
-        <v>-0.05556087551249621</v>
+        <v>-0.06229843597725951</v>
       </c>
       <c r="G87">
-        <v>0.1283513260729651</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02434007538434516</v>
+      </c>
+      <c r="H87">
+        <v>-0.01782706196091683</v>
+      </c>
+      <c r="I87">
+        <v>-0.01281360202756383</v>
+      </c>
+      <c r="J87">
+        <v>-0.08199429702753103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03688996017077491</v>
+        <v>0.02398047350776347</v>
       </c>
       <c r="C88">
-        <v>0.02501364408198538</v>
+        <v>0.01649005106155013</v>
       </c>
       <c r="D88">
-        <v>0.008862956693385958</v>
+        <v>-0.01198506804220392</v>
       </c>
       <c r="E88">
-        <v>-0.00401432789888111</v>
+        <v>0.02114601414148208</v>
       </c>
       <c r="F88">
-        <v>0.01358731454273879</v>
+        <v>-0.01706212648727858</v>
       </c>
       <c r="G88">
-        <v>-0.04629172185174432</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02471192691641562</v>
+      </c>
+      <c r="H88">
+        <v>0.042584122634046</v>
+      </c>
+      <c r="I88">
+        <v>-0.02369653929624236</v>
+      </c>
+      <c r="J88">
+        <v>-0.01847000836166123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.008214969168822561</v>
+        <v>0.06114647680170399</v>
       </c>
       <c r="C89">
-        <v>-0.4252844954093106</v>
+        <v>-0.3938144415853473</v>
       </c>
       <c r="D89">
-        <v>-0.1001011148307325</v>
+        <v>0.04410372780163165</v>
       </c>
       <c r="E89">
-        <v>-0.04144508598891136</v>
+        <v>-0.0704387519190179</v>
       </c>
       <c r="F89">
-        <v>-0.02147618871893189</v>
+        <v>0.02781988848261369</v>
       </c>
       <c r="G89">
-        <v>-0.05034250538513212</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.07655874289684982</v>
+      </c>
+      <c r="H89">
+        <v>0.007771756108754644</v>
+      </c>
+      <c r="I89">
+        <v>0.2918414891162178</v>
+      </c>
+      <c r="J89">
+        <v>0.03040367506428678</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.009887257821951229</v>
+        <v>0.03778935676891151</v>
       </c>
       <c r="C90">
-        <v>-0.306942749565635</v>
+        <v>-0.3330118446070002</v>
       </c>
       <c r="D90">
-        <v>-0.02745994660694511</v>
+        <v>0.02806962761695138</v>
       </c>
       <c r="E90">
-        <v>0.0287808395669187</v>
+        <v>-0.03994299870929353</v>
       </c>
       <c r="F90">
-        <v>-0.009948225417486876</v>
+        <v>-0.01296812706819367</v>
       </c>
       <c r="G90">
-        <v>0.06392109500223883</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02189383178796091</v>
+      </c>
+      <c r="H90">
+        <v>-0.02998993081862804</v>
+      </c>
+      <c r="I90">
+        <v>0.2093686224182651</v>
+      </c>
+      <c r="J90">
+        <v>-0.009328578364522833</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3020414704684783</v>
+        <v>0.3154988050158525</v>
       </c>
       <c r="C91">
-        <v>0.02092053325724425</v>
+        <v>0.04079812981350801</v>
       </c>
       <c r="D91">
-        <v>0.08546357868607103</v>
+        <v>-0.1027517600388532</v>
       </c>
       <c r="E91">
-        <v>-0.2557891336763813</v>
+        <v>0.2155694214312014</v>
       </c>
       <c r="F91">
-        <v>0.1797939712006349</v>
+        <v>0.1927405764142274</v>
       </c>
       <c r="G91">
-        <v>-0.05807175604084826</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03826028758898779</v>
+      </c>
+      <c r="H91">
+        <v>-0.0141458160003708</v>
+      </c>
+      <c r="I91">
+        <v>0.07535766143852818</v>
+      </c>
+      <c r="J91">
+        <v>0.2639522534816182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.03152042247839909</v>
+        <v>0.07221657677953948</v>
       </c>
       <c r="C92">
-        <v>-0.4387718979087194</v>
+        <v>-0.4602693035708778</v>
       </c>
       <c r="D92">
-        <v>-0.1843851687799056</v>
+        <v>0.07167494096277693</v>
       </c>
       <c r="E92">
-        <v>-0.1113429429486666</v>
+        <v>0.06817223473450855</v>
       </c>
       <c r="F92">
-        <v>0.1152561984839835</v>
+        <v>0.1398270912616142</v>
       </c>
       <c r="G92">
-        <v>-0.4834600079069937</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0289589065355791</v>
+      </c>
+      <c r="H92">
+        <v>0.5263953057874003</v>
+      </c>
+      <c r="I92">
+        <v>-0.6602852820197657</v>
+      </c>
+      <c r="J92">
+        <v>0.1186110546995965</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.02303740973760196</v>
+        <v>0.03716950678392807</v>
       </c>
       <c r="C93">
-        <v>-0.3689059242751644</v>
+        <v>-0.4038610776196055</v>
       </c>
       <c r="D93">
-        <v>-0.0702043385203627</v>
+        <v>0.05367923716741625</v>
       </c>
       <c r="E93">
-        <v>-0.05157855621476409</v>
+        <v>-0.03250266586257505</v>
       </c>
       <c r="F93">
-        <v>0.02442917584801721</v>
+        <v>0.05229742855665136</v>
       </c>
       <c r="G93">
-        <v>-0.005618846252108745</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04226976505459859</v>
+      </c>
+      <c r="H93">
+        <v>-0.04017046058294477</v>
+      </c>
+      <c r="I93">
+        <v>0.2020286220799331</v>
+      </c>
+      <c r="J93">
+        <v>0.0140385201141553</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2911655941254974</v>
+        <v>0.3192697543230678</v>
       </c>
       <c r="C94">
-        <v>-0.03888866471287087</v>
+        <v>-0.005737385936253406</v>
       </c>
       <c r="D94">
-        <v>0.06044842899846686</v>
+        <v>-0.1508600210311162</v>
       </c>
       <c r="E94">
-        <v>-0.3510447366452643</v>
+        <v>0.2370737242301189</v>
       </c>
       <c r="F94">
-        <v>0.4606701974910835</v>
+        <v>0.286436133951068</v>
       </c>
       <c r="G94">
-        <v>0.05318381114427817</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1803230488999156</v>
+      </c>
+      <c r="H94">
+        <v>0.07622300862119222</v>
+      </c>
+      <c r="I94">
+        <v>0.1378860663576033</v>
+      </c>
+      <c r="J94">
+        <v>-0.4412221850231282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.2057639046108898</v>
+        <v>0.1434345106953044</v>
       </c>
       <c r="C95">
-        <v>-0.03700132225255144</v>
+        <v>0.05943651847170479</v>
       </c>
       <c r="D95">
-        <v>0.04030461919587502</v>
+        <v>-0.04571055859402327</v>
       </c>
       <c r="E95">
-        <v>-0.4853509387246763</v>
+        <v>0.003492649000894459</v>
       </c>
       <c r="F95">
-        <v>-0.7886284972987256</v>
+        <v>0.05432176651343937</v>
       </c>
       <c r="G95">
-        <v>-0.1077590617732112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.93153824984805</v>
+      </c>
+      <c r="H95">
+        <v>-0.06799153605479204</v>
+      </c>
+      <c r="I95">
+        <v>-0.06806466514263904</v>
+      </c>
+      <c r="J95">
+        <v>-0.217424501214197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2192687976262401</v>
+        <v>0.2101185155450749</v>
       </c>
       <c r="C98">
-        <v>-0.130218974235225</v>
+        <v>-0.06678725122801789</v>
       </c>
       <c r="D98">
-        <v>-0.04026467077522013</v>
+        <v>0.01320021810389892</v>
       </c>
       <c r="E98">
-        <v>0.1070770882666425</v>
+        <v>-0.1886349191144305</v>
       </c>
       <c r="F98">
-        <v>-0.05335789757240715</v>
+        <v>-0.02963247303463793</v>
       </c>
       <c r="G98">
-        <v>0.2495149560127559</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.05835502672939541</v>
+      </c>
+      <c r="H98">
+        <v>-0.3011041172810999</v>
+      </c>
+      <c r="I98">
+        <v>-0.2048405264898959</v>
+      </c>
+      <c r="J98">
+        <v>0.0116066054392187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02054790667253035</v>
+        <v>0.01248789506780463</v>
       </c>
       <c r="C101">
-        <v>0.01803166722341582</v>
+        <v>0.02852728250701396</v>
       </c>
       <c r="D101">
-        <v>0.02065923539408662</v>
+        <v>-0.02755512840003951</v>
       </c>
       <c r="E101">
-        <v>0.03157569875446273</v>
+        <v>-0.03249033493484252</v>
       </c>
       <c r="F101">
-        <v>-0.01031750889929055</v>
+        <v>-0.05957499503922783</v>
       </c>
       <c r="G101">
-        <v>-0.05123295548516272</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.007546994488396657</v>
+      </c>
+      <c r="H101">
+        <v>0.1168275540915267</v>
+      </c>
+      <c r="I101">
+        <v>-0.001345598112307184</v>
+      </c>
+      <c r="J101">
+        <v>-0.1506437948284576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1182676608941436</v>
+        <v>0.1218182264288364</v>
       </c>
       <c r="C102">
-        <v>0.005070816096834482</v>
+        <v>0.0261685503647936</v>
       </c>
       <c r="D102">
-        <v>0.05146289560003739</v>
+        <v>-0.05414674087322089</v>
       </c>
       <c r="E102">
-        <v>-0.07755800627203885</v>
+        <v>0.07856436712006487</v>
       </c>
       <c r="F102">
-        <v>0.004908713443310114</v>
+        <v>0.04573863414667689</v>
       </c>
       <c r="G102">
-        <v>0.0007447016350714003</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.02725775827908612</v>
+      </c>
+      <c r="H102">
+        <v>-0.006935097146563471</v>
+      </c>
+      <c r="I102">
+        <v>0.04162271629276919</v>
+      </c>
+      <c r="J102">
+        <v>0.04949091065153469</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01703520070492051</v>
+        <v>0.02654308917489676</v>
       </c>
       <c r="C103">
-        <v>-0.001814392411422181</v>
+        <v>0.001701459384181161</v>
       </c>
       <c r="D103">
-        <v>0.01845861512461778</v>
+        <v>-0.01828104241433802</v>
       </c>
       <c r="E103">
-        <v>-0.02558208550563447</v>
+        <v>0.03095554070861074</v>
       </c>
       <c r="F103">
-        <v>0.01981932076973488</v>
+        <v>0.003286283661595005</v>
       </c>
       <c r="G103">
-        <v>0.0116332275286673</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01104290818713541</v>
+      </c>
+      <c r="H103">
+        <v>-0.001598666806375519</v>
+      </c>
+      <c r="I103">
+        <v>0.02243906983370057</v>
+      </c>
+      <c r="J103">
+        <v>0.005624572911021416</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
